--- a/SemicolonSystem.Show/Template/订单模版.xlsx
+++ b/SemicolonSystem.Show/Template/订单模版.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\工作文件\项目\SemicolonSystem\SemicolonSystem.Show\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>姓名</t>
   </si>
@@ -90,14 +95,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,345 +138,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -500,251 +175,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -792,58 +225,19 @@
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1133,21 +527,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1167,7 +558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:16">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -1192,7 +583,7 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:16">
+    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1217,7 +608,7 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:16">
+    <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1242,7 +633,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:16">
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -1267,7 +658,7 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:16">
+    <row r="6" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -1292,7 +683,7 @@
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:16">
+    <row r="7" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
@@ -1317,7 +708,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:16">
+    <row r="8" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -1342,7 +733,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:16">
+    <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
@@ -1367,7 +758,7 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="16.5" spans="1:26">
+    <row r="10" spans="1:26" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -1407,7 +798,7 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:26">
+    <row r="11" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -1447,7 +838,7 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:26">
+    <row r="12" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -1487,7 +878,7 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:26">
+    <row r="13" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
@@ -1527,7 +918,7 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:26">
+    <row r="14" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
@@ -1567,7 +958,7 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:26">
+    <row r="15" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
@@ -1607,7 +998,7 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:26">
+    <row r="16" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
@@ -1647,7 +1038,7 @@
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:26">
+    <row r="17" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
@@ -1687,7 +1078,7 @@
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:26">
+    <row r="18" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
@@ -1728,43 +1119,37 @@
       <c r="Z18" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection password="DF6C" sheet="1" selectLockedCells="1" objects="1"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetProtection selectLockedCells="1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/SemicolonSystem.Show/Template/订单模版.xlsx
+++ b/SemicolonSystem.Show/Template/订单模版.xlsx
@@ -12,9 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="订单1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -284,7 +282,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,7 +317,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -530,7 +528,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1124,32 +1124,4 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
 </file>